--- a/data/trans_orig/CLASESOCIAL_Hogar_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE311FD2-0A3B-413C-9834-88BAAB7F2F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED761264-7F28-427A-8D33-EE219184F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0FDE963-C3FD-489F-A70B-D9B8CA62402D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CD2CDFC-4F17-47D6-AA14-49D54FEECA25}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="294">
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2012 (Tasa respuesta: 79,71%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,69%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -100,28 +100,28 @@
     <t>29,09%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -130,28 +130,28 @@
     <t>70,7%</t>
   </si>
   <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,55 +169,55 @@
     <t>46,39%</t>
   </si>
   <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>53,61%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -235,55 +235,55 @@
     <t>87,47%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>85,97%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -304,55 +304,55 @@
     <t>47,05%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
   </si>
   <si>
     <t>37,41%</t>
   </si>
   <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>42,85%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
   </si>
   <si>
     <t>52,88%</t>
   </si>
   <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
   </si>
   <si>
     <t>62,59%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
   </si>
   <si>
     <t>57,12%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -370,55 +370,61 @@
     <t>22,29%</t>
   </si>
   <si>
-    <t>25,73%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>74,27%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>83,05%</t>
   </si>
   <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -433,55 +439,55 @@
     <t>38,76%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
   </si>
   <si>
     <t>35,32%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>61,11%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -493,118 +499,109 @@
     <t>88,65%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>91,3%</t>
   </si>
   <si>
     <t>79,86%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>11,35%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>8,7%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,15%</t>
+    <t>0,02%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>36,1%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
   </si>
   <si>
     <t>57,06%</t>
   </si>
   <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
   </si>
   <si>
     <t>63,86%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>60,06%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -613,181 +610,181 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
   </si>
   <si>
     <t>56,4%</t>
   </si>
   <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>3,44%</t>
@@ -796,31 +793,31 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,63%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>83,24%</t>
+    <t>83,15%</t>
   </si>
   <si>
     <t>87,14%</t>
@@ -832,49 +829,49 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>13,41%</t>
+    <t>13,38%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>49,52%</t>
@@ -883,16 +880,16 @@
     <t>47,34%</t>
   </si>
   <si>
-    <t>52,55%</t>
+    <t>52,18%</t>
   </si>
   <si>
     <t>43,55%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>46,36%</t>
@@ -901,28 +898,28 @@
     <t>44,8%</t>
   </si>
   <si>
-    <t>49,77%</t>
+    <t>49,15%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67333792-99F4-48E4-A6E9-556C1EFB4975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C3773A-30C6-4FC6-9B1D-C7C6BD25D851}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,7 +2223,7 @@
         <v>2934</v>
       </c>
       <c r="D19" s="7">
-        <v>3150042</v>
+        <v>3150041</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -2289,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BD7A3B-D1B1-4770-A5A1-B9FA6BD97E9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE091E0-C64C-40F2-B425-C67298292ACF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2467,10 +2464,10 @@
         <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -2479,13 +2476,13 @@
         <v>48617</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2494,13 +2491,13 @@
         <v>213822</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2512,13 @@
         <v>576015</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="H6" s="7">
         <v>440</v>
@@ -2530,13 +2527,13 @@
         <v>471383</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M6" s="7">
         <v>1020</v>
@@ -2545,13 +2542,13 @@
         <v>1047399</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2640,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2649,13 +2646,13 @@
         <v>3210</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2667,13 @@
         <v>715653</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H9" s="7">
         <v>419</v>
@@ -2685,13 +2682,13 @@
         <v>442550</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M9" s="7">
         <v>1092</v>
@@ -2700,13 +2697,13 @@
         <v>1158202</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2718,13 @@
         <v>1128272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>958</v>
@@ -2736,13 +2733,13 @@
         <v>989400</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>2019</v>
@@ -2751,13 +2748,13 @@
         <v>2117673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2828,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2846,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2876,13 +2873,13 @@
         <v>442051</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>373</v>
@@ -2891,13 +2888,13 @@
         <v>390278</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>778</v>
@@ -2906,13 +2903,13 @@
         <v>832329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2924,13 @@
         <v>56572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -3037,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3052,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3064,10 +3061,10 @@
         <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3079,13 @@
         <v>1322909</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>833</v>
@@ -3097,13 +3094,13 @@
         <v>881445</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>2080</v>
@@ -3112,13 +3109,13 @@
         <v>2204353</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3130,13 @@
         <v>1760860</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H18" s="7">
         <v>1492</v>
@@ -3148,13 +3145,13 @@
         <v>1559186</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M18" s="7">
         <v>3183</v>
@@ -3163,13 +3160,13 @@
         <v>3320046</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01356AEA-648D-4A9A-95E8-92AF54FE611E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B10F4-A28C-4E2B-A9C9-F225DE6509E1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3261,7 +3258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3368,13 +3365,13 @@
         <v>8156</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>151</v>
@@ -3383,13 +3380,13 @@
         <v>94196</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>160</v>
@@ -3398,13 +3395,13 @@
         <v>102352</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3416,13 @@
         <v>104906</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>280</v>
@@ -3434,13 +3431,13 @@
         <v>170556</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>415</v>
@@ -3449,13 +3446,13 @@
         <v>275462</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3467,13 @@
         <v>428572</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>996</v>
@@ -3485,13 +3482,13 @@
         <v>571201</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>1543</v>
@@ -3500,13 +3497,13 @@
         <v>999772</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3571,13 @@
         <v>43555</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -3589,13 +3586,13 @@
         <v>102323</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>170</v>
@@ -3604,13 +3601,13 @@
         <v>145878</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3622,13 @@
         <v>987596</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H9" s="7">
         <v>1049</v>
@@ -3640,13 +3637,13 @@
         <v>878415</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M9" s="7">
         <v>1938</v>
@@ -3655,13 +3652,13 @@
         <v>1866011</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,28 +3673,28 @@
         <v>1130871</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>1741</v>
       </c>
       <c r="I10" s="7">
-        <v>1268782</v>
+        <v>1268783</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>2805</v>
@@ -3706,13 +3703,13 @@
         <v>2399654</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3736,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -3780,13 +3777,13 @@
         <v>24721</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -3795,13 +3792,13 @@
         <v>23031</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -3810,13 +3807,13 @@
         <v>47752</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3828,13 @@
         <v>579627</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>839</v>
@@ -3846,13 +3843,13 @@
         <v>605593</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>1418</v>
@@ -3861,13 +3858,13 @@
         <v>1185221</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3879,13 @@
         <v>68691</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -3897,13 +3894,13 @@
         <v>85262</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>198</v>
@@ -3912,13 +3909,13 @@
         <v>153953</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3983,13 @@
         <v>76433</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>321</v>
@@ -4001,13 +3998,13 @@
         <v>219550</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>399</v>
@@ -4016,13 +4013,13 @@
         <v>295983</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4034,13 @@
         <v>1672129</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>2168</v>
@@ -4052,28 +4049,28 @@
         <v>1654565</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>3771</v>
       </c>
       <c r="N17" s="7">
-        <v>3326694</v>
+        <v>3326693</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,16 +4082,16 @@
         <v>1683</v>
       </c>
       <c r="D18" s="7">
-        <v>1628133</v>
+        <v>1628132</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>2863</v>
@@ -4103,13 +4100,13 @@
         <v>1925245</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>4546</v>
@@ -4118,13 +4115,13 @@
         <v>3553378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,7 +4133,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -4166,7 +4163,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>

--- a/data/trans_orig/CLASESOCIAL_Hogar_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED761264-7F28-427A-8D33-EE219184F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B49A94-626F-43C5-A5EC-E6EBC22CFB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CD2CDFC-4F17-47D6-AA14-49D54FEECA25}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09F0593D-FBBB-4F96-990E-0811750E3BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="298">
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2012 (Tasa respuesta: 79,71%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -100,28 +100,28 @@
     <t>29,09%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -130,28 +130,28 @@
     <t>70,7%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,745 +169,757 @@
     <t>46,39%</t>
   </si>
   <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>53,61%</t>
   </si>
   <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2016 (Tasa respuesta: 80,51%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
     <t>50,67%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2015 (Tasa respuesta: 80,51%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
   </si>
   <si>
     <t>45,26%</t>
@@ -1331,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C3773A-30C6-4FC6-9B1D-C7C6BD25D851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9467F736-53A0-41E0-B661-68AAF73AB92F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2286,7 +2298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE091E0-C64C-40F2-B425-C67298292ACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E887A3-EA86-4DFF-BA80-D4D522647597}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2876,10 +2888,10 @@
         <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>373</v>
@@ -2888,13 +2900,13 @@
         <v>390278</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>778</v>
@@ -2903,13 +2915,13 @@
         <v>832329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2936,13 @@
         <v>56572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -2939,13 +2951,13 @@
         <v>98403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>144</v>
@@ -2954,13 +2966,13 @@
         <v>154975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3061,10 +3073,10 @@
         <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3091,13 @@
         <v>1322909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>833</v>
@@ -3094,13 +3106,13 @@
         <v>881445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>2080</v>
@@ -3109,13 +3121,13 @@
         <v>2204353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3142,13 @@
         <v>1760860</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H18" s="7">
         <v>1492</v>
@@ -3145,13 +3157,13 @@
         <v>1559186</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M18" s="7">
         <v>3183</v>
@@ -3160,13 +3172,13 @@
         <v>3320046</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B10F4-A28C-4E2B-A9C9-F225DE6509E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADD25CF-809D-45A6-A472-BF839F6B17ED}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3258,7 +3270,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3365,13 +3377,13 @@
         <v>8156</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>151</v>
@@ -3380,13 +3392,13 @@
         <v>94196</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>160</v>
@@ -3395,13 +3407,13 @@
         <v>102352</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3428,13 @@
         <v>104906</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>280</v>
@@ -3431,13 +3443,13 @@
         <v>170556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>415</v>
@@ -3446,13 +3458,13 @@
         <v>275462</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3479,13 @@
         <v>428572</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>996</v>
@@ -3482,13 +3494,13 @@
         <v>571201</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>1543</v>
@@ -3497,13 +3509,13 @@
         <v>999772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3583,13 @@
         <v>43555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -3586,13 +3598,13 @@
         <v>102323</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
         <v>170</v>
@@ -3601,13 +3613,13 @@
         <v>145878</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3634,13 @@
         <v>987596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H9" s="7">
         <v>1049</v>
@@ -3637,13 +3649,13 @@
         <v>878415</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>1938</v>
@@ -3652,13 +3664,13 @@
         <v>1866011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3685,13 @@
         <v>1130871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>1741</v>
@@ -3688,13 +3700,13 @@
         <v>1268783</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>2805</v>
@@ -3703,13 +3715,13 @@
         <v>2399654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3789,13 @@
         <v>24721</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -3792,13 +3804,13 @@
         <v>23031</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -3807,13 +3819,13 @@
         <v>47752</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3840,13 @@
         <v>579627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>839</v>
@@ -3843,13 +3855,13 @@
         <v>605593</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>1418</v>
@@ -3858,13 +3870,13 @@
         <v>1185221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3891,13 @@
         <v>68691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -3894,13 +3906,13 @@
         <v>85262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>198</v>
@@ -3909,13 +3921,13 @@
         <v>153953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3995,13 @@
         <v>76433</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>321</v>
@@ -3998,13 +4010,13 @@
         <v>219550</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>399</v>
@@ -4013,13 +4025,13 @@
         <v>295983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4046,13 @@
         <v>1672129</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>2168</v>
@@ -4049,13 +4061,13 @@
         <v>1654565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>3771</v>
@@ -4064,13 +4076,13 @@
         <v>3326693</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4097,13 @@
         <v>1628132</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>2863</v>
@@ -4100,13 +4112,13 @@
         <v>1925245</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>4546</v>
@@ -4115,13 +4127,13 @@
         <v>3553378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
